--- a/University Readiness_new (3).xlsx
+++ b/University Readiness_new (3).xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8556" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8556" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="set_finance&amp;Eco." sheetId="13" r:id="rId2"/>
-    <sheet name="set_cs" sheetId="2" r:id="rId3"/>
-    <sheet name="set_ds" sheetId="3" r:id="rId4"/>
+    <sheet name="set_cs-ai" sheetId="2" r:id="rId3"/>
+    <sheet name="set_ds-stats." sheetId="3" r:id="rId4"/>
     <sheet name="set_bio" sheetId="4" r:id="rId5"/>
     <sheet name="set_chem" sheetId="5" r:id="rId6"/>
     <sheet name="set_math" sheetId="6" r:id="rId7"/>
@@ -39,18 +39,6 @@
     <t>next_questions_set</t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>set_cs</t>
-  </si>
-  <si>
-    <t>Data Science</t>
-  </si>
-  <si>
-    <t>set_ds</t>
-  </si>
-  <si>
     <t>question_id</t>
   </si>
   <si>
@@ -1300,6 +1288,18 @@
   </si>
   <si>
     <t>1–2 APs or 1 IB HL or MOOCs 2-4</t>
+  </si>
+  <si>
+    <t>set_cs-ai</t>
+  </si>
+  <si>
+    <t>CS/AI</t>
+  </si>
+  <si>
+    <t>Data Science and Statistics</t>
+  </si>
+  <si>
+    <t>set_ds-stats.</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1627,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1646,34 +1646,34 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>420</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>421</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -1696,40 +1696,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1737,34 +1737,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="6">
         <v>40</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2" s="6">
         <v>34</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2" s="6">
         <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J2" s="6">
         <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L2" s="6">
         <v>10</v>
@@ -1775,28 +1775,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D3" s="6">
         <v>7.5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F3" s="6">
         <v>5.2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H3" s="6">
         <v>3</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
@@ -1809,28 +1809,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D4" s="6">
         <v>7.5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F4" s="6">
         <v>5.2</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H4" s="6">
         <v>3</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J4" s="6">
         <v>0</v>
@@ -1843,34 +1843,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D5" s="6">
         <v>11.2</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F5" s="6">
         <v>9</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H5" s="6">
         <v>6.8</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J5" s="6">
         <v>3.8</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -1881,28 +1881,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D6" s="6">
         <v>7.5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F6" s="6">
         <v>5.2</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H6" s="6">
         <v>3</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J6" s="6">
         <v>0</v>
@@ -1915,28 +1915,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D7" s="6">
         <v>7.5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F7" s="6">
         <v>5.2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H7" s="6">
         <v>3</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
@@ -1949,28 +1949,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D8" s="6">
         <v>3.8</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F8" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H8" s="6">
         <v>0.8</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J8" s="6">
         <v>0</v>
@@ -1983,28 +1983,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D9" s="6">
         <v>3.8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F9" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H9" s="6">
         <v>1.5</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J9" s="6">
         <v>0</v>
@@ -2017,28 +2017,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D10" s="6">
         <v>3.8</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F10" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H10" s="6">
         <v>1.5</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J10" s="6">
         <v>0</v>
@@ -2051,34 +2051,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D11" s="6">
         <v>7.5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F11" s="6">
         <v>5.2</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H11" s="6">
         <v>3</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J11" s="6">
         <v>0.8</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -2107,40 +2107,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2148,34 +2148,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="6">
         <v>40</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2" s="6">
         <v>34</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2" s="6">
         <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J2" s="6">
         <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L2" s="6">
         <v>10</v>
@@ -2186,28 +2186,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D3" s="6">
         <v>7.5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F3" s="6">
         <v>5.2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H3" s="6">
         <v>3</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
@@ -2220,28 +2220,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D4" s="6">
         <v>7.5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F4" s="6">
         <v>5.2</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H4" s="6">
         <v>3</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J4" s="6">
         <v>0</v>
@@ -2254,34 +2254,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D5" s="6">
         <v>11.2</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F5" s="6">
         <v>9</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H5" s="6">
         <v>6.8</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="J5" s="6">
         <v>3.8</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -2292,34 +2292,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D6" s="6">
         <v>7.5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F6" s="6">
         <v>5.2</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H6" s="6">
         <v>3</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J6" s="6">
         <v>1.5</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -2330,28 +2330,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D7" s="6">
         <v>7.5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F7" s="6">
         <v>5.2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H7" s="6">
         <v>3</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
@@ -2364,28 +2364,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D8" s="6">
         <v>3.8</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F8" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H8" s="6">
         <v>0.8</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J8" s="6">
         <v>0</v>
@@ -2398,28 +2398,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D9" s="6">
         <v>3.8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F9" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H9" s="6">
         <v>1.5</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J9" s="6">
         <v>0</v>
@@ -2432,28 +2432,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D10" s="6">
         <v>3.8</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F10" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H10" s="6">
         <v>1.5</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J10" s="6">
         <v>0</v>
@@ -2466,34 +2466,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D11" s="6">
         <v>7.5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F11" s="6">
         <v>5.2</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H11" s="6">
         <v>3</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J11" s="6">
         <v>0.8</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -2508,7 +2508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2521,40 +2521,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2562,34 +2562,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="8">
         <v>40</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2" s="8">
         <v>34</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2" s="8">
         <v>28</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J2" s="8">
         <v>20</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L2" s="8">
         <v>10</v>
@@ -2600,28 +2600,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D3" s="8">
         <v>7.5</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F3" s="8">
         <v>5.2</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H3" s="8">
         <v>3</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J3" s="8">
         <v>0</v>
@@ -2634,28 +2634,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D4" s="8">
         <v>7.5</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F4" s="8">
         <v>5.2</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H4" s="8">
         <v>3</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J4" s="8">
         <v>0</v>
@@ -2668,34 +2668,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D5" s="8">
         <v>11.2</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F5" s="8">
         <v>9</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H5" s="8">
         <v>6.8</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J5" s="8">
         <v>3.8</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L5" s="8">
         <v>0</v>
@@ -2706,34 +2706,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D6" s="8">
         <v>7.5</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F6" s="8">
         <v>5.2</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H6" s="8">
         <v>3</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J6" s="8">
         <v>1.5</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L6" s="8">
         <v>0</v>
@@ -2744,28 +2744,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D7" s="8">
         <v>7.5</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F7" s="8">
         <v>5.2</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H7" s="8">
         <v>3</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J7" s="8">
         <v>0</v>
@@ -2778,28 +2778,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D8" s="8">
         <v>3.8</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F8" s="8">
         <v>2.2000000000000002</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H8" s="8">
         <v>0.8</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J8" s="8">
         <v>0</v>
@@ -2812,28 +2812,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D9" s="8">
         <v>3.8</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F9" s="8">
         <v>2.2000000000000002</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H9" s="8">
         <v>1.5</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J9" s="8">
         <v>0</v>
@@ -2846,28 +2846,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D10" s="8">
         <v>3.8</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F10" s="8">
         <v>2.2000000000000002</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H10" s="8">
         <v>1.5</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J10" s="8">
         <v>0</v>
@@ -2880,34 +2880,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D11" s="8">
         <v>7.5</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F11" s="8">
         <v>5.2</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H11" s="8">
         <v>3</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J11" s="8">
         <v>0.8</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L11" s="8">
         <v>0</v>
@@ -2938,40 +2938,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2979,34 +2979,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="6">
         <v>40</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2" s="6">
         <v>34</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2" s="6">
         <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J2" s="6">
         <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L2" s="6">
         <v>10</v>
@@ -3017,28 +3017,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D3" s="6">
         <v>7.5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F3" s="6">
         <v>5.2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H3" s="6">
         <v>3</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
@@ -3051,28 +3051,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D4" s="6">
         <v>7.5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F4" s="6">
         <v>5.2</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H4" s="6">
         <v>3</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J4" s="6">
         <v>0</v>
@@ -3085,34 +3085,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D5" s="6">
         <v>11.2</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F5" s="6">
         <v>9</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H5" s="6">
         <v>6.8</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="J5" s="6">
         <v>3.8</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -3123,28 +3123,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D6" s="6">
         <v>7.5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F6" s="6">
         <v>5.2</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H6" s="6">
         <v>3</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J6" s="6">
         <v>0</v>
@@ -3157,28 +3157,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D7" s="6">
         <v>7.5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F7" s="6">
         <v>5.2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H7" s="6">
         <v>3</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
@@ -3191,28 +3191,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D8" s="6">
         <v>3.8</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F8" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H8" s="6">
         <v>0.8</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J8" s="6">
         <v>0</v>
@@ -3225,28 +3225,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D9" s="6">
         <v>3.8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F9" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H9" s="6">
         <v>1.5</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J9" s="6">
         <v>0</v>
@@ -3259,28 +3259,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D10" s="6">
         <v>3.8</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F10" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H10" s="6">
         <v>1.5</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J10" s="6">
         <v>0</v>
@@ -3293,34 +3293,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D11" s="6">
         <v>7.5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F11" s="6">
         <v>5.2</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H11" s="6">
         <v>3</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J11" s="6">
         <v>0.8</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -3346,40 +3346,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3387,34 +3387,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="8">
         <v>40</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2" s="8">
         <v>34</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2" s="8">
         <v>28</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J2" s="8">
         <v>20</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L2" s="8">
         <v>10</v>
@@ -3425,28 +3425,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D3" s="8">
         <v>7.5</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F3" s="8">
         <v>5.2</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H3" s="8">
         <v>3</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J3" s="8">
         <v>0</v>
@@ -3459,28 +3459,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D4" s="8">
         <v>7.5</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F4" s="8">
         <v>5.2</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H4" s="8">
         <v>3</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J4" s="8">
         <v>0</v>
@@ -3493,34 +3493,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D5" s="8">
         <v>11.2</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F5" s="8">
         <v>9</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H5" s="8">
         <v>6.8</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J5" s="8">
         <v>3.8</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L5" s="8">
         <v>0</v>
@@ -3531,34 +3531,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D6" s="8">
         <v>7.5</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F6" s="8">
         <v>5.2</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H6" s="8">
         <v>3</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J6" s="8">
         <v>1.5</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L6" s="8">
         <v>0</v>
@@ -3569,28 +3569,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D7" s="8">
         <v>7.5</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F7" s="8">
         <v>5.2</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H7" s="8">
         <v>3</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J7" s="8">
         <v>0</v>
@@ -3603,28 +3603,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D8" s="8">
         <v>3.8</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F8" s="8">
         <v>2.2000000000000002</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H8" s="8">
         <v>0.8</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J8" s="8">
         <v>0</v>
@@ -3637,28 +3637,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D9" s="8">
         <v>3.8</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F9" s="8">
         <v>2.2000000000000002</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H9" s="8">
         <v>1.5</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J9" s="8">
         <v>0</v>
@@ -3671,28 +3671,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D10" s="8">
         <v>3.8</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F10" s="8">
         <v>2.2000000000000002</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H10" s="8">
         <v>1.5</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J10" s="8">
         <v>0</v>
@@ -3705,34 +3705,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D11" s="8">
         <v>7.5</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F11" s="8">
         <v>5.2</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H11" s="8">
         <v>3</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J11" s="8">
         <v>0.8</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L11" s="8">
         <v>0</v>
@@ -3750,8 +3750,8 @@
   </sheetPr>
   <dimension ref="A1:L162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3765,40 +3765,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3806,34 +3806,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="6">
         <v>40</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2" s="6">
         <v>34</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2" s="6">
         <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J2" s="6">
         <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L2" s="6">
         <v>10</v>
@@ -3844,28 +3844,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3" s="6">
         <v>7.5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F3" s="6">
         <v>5.2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H3" s="6">
         <v>3</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
@@ -3878,34 +3878,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4" s="6">
         <v>7.5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F4" s="6">
         <v>6</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H4" s="6">
         <v>4.5</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J4" s="6">
         <v>3</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L4" s="6">
         <v>0</v>
@@ -3916,34 +3916,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D5" s="6">
         <v>7.5</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F5" s="6">
         <v>5.2</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H5" s="6">
         <v>3</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J5" s="6">
         <v>1.5</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -3954,28 +3954,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D6" s="6">
         <v>11.2</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F6" s="6">
         <v>9</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H6" s="6">
         <v>4</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J6" s="6">
         <v>0</v>
@@ -3986,34 +3986,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D7" s="6">
         <v>7.5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F7" s="6">
         <v>5.2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H7" s="6">
         <v>3.8</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J7" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L7" s="6">
         <v>0</v>
@@ -4024,34 +4024,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D8" s="6">
         <v>7.5</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F8" s="6">
         <v>5.2</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H8" s="6">
         <v>3.8</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J8" s="6">
         <v>1.5</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -4062,28 +4062,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D9" s="6">
         <v>3.8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F9" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H9" s="6">
         <v>0.8</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J9" s="6">
         <v>0</v>
@@ -4096,28 +4096,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D10" s="6">
         <v>3.8</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F10" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H10" s="6">
         <v>1.5</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J10" s="6">
         <v>0</v>
@@ -4130,28 +4130,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D11" s="6">
         <v>3.8</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F11" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H11" s="6">
         <v>1.5</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J11" s="6">
         <v>0</v>
@@ -4595,7 +4595,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4606,40 +4606,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4647,34 +4647,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="6">
         <v>40</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2" s="6">
         <v>34</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2" s="6">
         <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J2" s="6">
         <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L2" s="6">
         <v>10</v>
@@ -4685,28 +4685,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D3" s="6">
         <v>7.5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F3" s="6">
         <v>5.2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H3" s="6">
         <v>3</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
@@ -4719,34 +4719,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D4" s="6">
         <v>7.5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F4" s="6">
         <v>5.2</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H4" s="6">
         <v>3</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J4" s="6">
         <v>1.5</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L4" s="6">
         <v>0</v>
@@ -4757,34 +4757,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D5" s="6">
         <v>11.2</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F5" s="6">
         <v>9</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H5" s="6">
         <v>6.8</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J5" s="6">
         <v>3.8</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -4795,34 +4795,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D6" s="6">
         <v>7.5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F6" s="6">
         <v>5.2</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H6" s="6">
         <v>3</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J6" s="6">
         <v>1.5</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -4833,34 +4833,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D7" s="6">
         <v>7.5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F7" s="6">
         <v>5.2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H7" s="6">
         <v>3</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J7" s="6">
         <v>1.5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L7" s="6">
         <v>0</v>
@@ -4871,28 +4871,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D8" s="6">
         <v>3.8</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F8" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H8" s="6">
         <v>0.8</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J8" s="6">
         <v>0</v>
@@ -4905,28 +4905,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D9" s="6">
         <v>3.8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F9" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H9" s="6">
         <v>1.5</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J9" s="6">
         <v>0</v>
@@ -4939,28 +4939,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D10" s="6">
         <v>3.8</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F10" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H10" s="6">
         <v>1.5</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J10" s="6">
         <v>0</v>
@@ -4973,34 +4973,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D11" s="6">
         <v>7.5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F11" s="6">
         <v>5.2</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H11" s="6">
         <v>3</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J11" s="6">
         <v>0.8</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -5029,40 +5029,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5070,34 +5070,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="6">
         <v>40</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2" s="6">
         <v>34</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2" s="6">
         <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J2" s="6">
         <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L2" s="6">
         <v>10</v>
@@ -5108,28 +5108,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D3" s="6">
         <v>7.5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F3" s="6">
         <v>5.2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H3" s="6">
         <v>3</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
@@ -5142,28 +5142,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D4" s="6">
         <v>7.5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F4" s="6">
         <v>5.2</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H4" s="6">
         <v>3</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J4" s="6">
         <v>0</v>
@@ -5176,34 +5176,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D5" s="6">
         <v>11.2</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F5" s="6">
         <v>9</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H5" s="6">
         <v>6.8</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J5" s="6">
         <v>3.8</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -5214,28 +5214,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D6" s="6">
         <v>7.5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F6" s="6">
         <v>5.2</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H6" s="6">
         <v>3</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J6" s="6">
         <v>0</v>
@@ -5248,28 +5248,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D7" s="6">
         <v>7.5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F7" s="6">
         <v>5.2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H7" s="6">
         <v>3</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
@@ -5282,28 +5282,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D8" s="6">
         <v>3.8</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F8" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H8" s="6">
         <v>0.8</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J8" s="6">
         <v>0</v>
@@ -5316,28 +5316,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D9" s="6">
         <v>3.8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F9" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H9" s="6">
         <v>1.5</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J9" s="6">
         <v>0</v>
@@ -5350,28 +5350,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D10" s="6">
         <v>3.8</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F10" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H10" s="6">
         <v>1.5</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J10" s="6">
         <v>0</v>
@@ -5384,34 +5384,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D11" s="6">
         <v>7.5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F11" s="6">
         <v>5.2</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H11" s="6">
         <v>3</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J11" s="6">
         <v>0.8</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -5440,40 +5440,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5481,34 +5481,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="6">
         <v>40</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2" s="6">
         <v>34</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2" s="6">
         <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J2" s="6">
         <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L2" s="6">
         <v>10</v>
@@ -5519,28 +5519,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D3" s="6">
         <v>7.5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F3" s="6">
         <v>5.2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H3" s="6">
         <v>3</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
@@ -5553,28 +5553,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D4" s="6">
         <v>7.5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F4" s="6">
         <v>5.2</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H4" s="6">
         <v>3</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J4" s="6">
         <v>0</v>
@@ -5587,34 +5587,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D5" s="6">
         <v>11.2</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F5" s="6">
         <v>9</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H5" s="6">
         <v>6.8</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J5" s="6">
         <v>3.8</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -5625,28 +5625,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D6" s="6">
         <v>7.5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F6" s="6">
         <v>5.2</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H6" s="6">
         <v>3</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J6" s="6">
         <v>0</v>
@@ -5659,28 +5659,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D7" s="6">
         <v>7.5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F7" s="6">
         <v>5.2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H7" s="6">
         <v>3</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
@@ -5693,28 +5693,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D8" s="6">
         <v>3.8</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F8" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H8" s="6">
         <v>0.8</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J8" s="6">
         <v>0</v>
@@ -5727,28 +5727,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D9" s="6">
         <v>3.8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F9" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H9" s="6">
         <v>1.5</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J9" s="6">
         <v>0</v>
@@ -5761,28 +5761,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D10" s="6">
         <v>3.8</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F10" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H10" s="6">
         <v>1.5</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J10" s="6">
         <v>0</v>
@@ -5795,34 +5795,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D11" s="6">
         <v>7.5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F11" s="6">
         <v>5.2</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H11" s="6">
         <v>3</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J11" s="6">
         <v>0.8</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -5848,40 +5848,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5889,34 +5889,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="6">
         <v>40</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2" s="6">
         <v>34</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2" s="6">
         <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J2" s="6">
         <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L2" s="6">
         <v>10</v>
@@ -5927,28 +5927,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D3" s="6">
         <v>7.5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F3" s="6">
         <v>5.2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H3" s="6">
         <v>3</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
@@ -5961,34 +5961,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D4" s="6">
         <v>7.5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F4" s="6">
         <v>5.2</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H4" s="6">
         <v>3</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J4" s="6">
         <v>1.5</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L4" s="6">
         <v>0</v>
@@ -5999,34 +5999,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D5" s="6">
         <v>11.2</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F5" s="6">
         <v>9</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H5" s="6">
         <v>6.8</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J5" s="6">
         <v>3.8</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -6037,22 +6037,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D6" s="6">
         <v>7.5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F6" s="6">
         <v>5.2</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H6" s="6">
         <v>0</v>
@@ -6067,28 +6067,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D7" s="6">
         <v>7.5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F7" s="6">
         <v>5.2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H7" s="6">
         <v>3</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
@@ -6101,22 +6101,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D8" s="6">
         <v>3.8</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F8" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
@@ -6131,28 +6131,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D9" s="6">
         <v>3.8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F9" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H9" s="6">
         <v>1.5</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J9" s="6">
         <v>0</v>
@@ -6165,28 +6165,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D10" s="6">
         <v>3.8</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F10" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H10" s="6">
         <v>1.5</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J10" s="6">
         <v>0</v>
@@ -6199,34 +6199,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D11" s="6">
         <v>7.5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F11" s="6">
         <v>5.2</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H11" s="6">
         <v>3</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J11" s="6">
         <v>0.8</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -6252,40 +6252,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6293,34 +6293,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="6">
         <v>40</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2" s="6">
         <v>34</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2" s="6">
         <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J2" s="6">
         <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L2" s="6">
         <v>10</v>
@@ -6331,28 +6331,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D3" s="6">
         <v>7.5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F3" s="6">
         <v>5.2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H3" s="6">
         <v>3</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
@@ -6365,28 +6365,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D4" s="6">
         <v>7.5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F4" s="6">
         <v>5.2</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H4" s="6">
         <v>3</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J4" s="6">
         <v>0</v>
@@ -6399,34 +6399,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D5" s="6">
         <v>11.2</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F5" s="6">
         <v>9</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H5" s="6">
         <v>6.8</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J5" s="6">
         <v>3.8</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -6437,28 +6437,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D6" s="6">
         <v>7.5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F6" s="6">
         <v>5.2</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H6" s="6">
         <v>3</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J6" s="6">
         <v>0</v>
@@ -6471,28 +6471,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D7" s="6">
         <v>7.5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F7" s="6">
         <v>5.2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H7" s="6">
         <v>3</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
@@ -6505,22 +6505,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D8" s="6">
         <v>3.8</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F8" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
@@ -6535,28 +6535,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D9" s="6">
         <v>3.8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F9" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H9" s="6">
         <v>1.5</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J9" s="6">
         <v>0</v>
@@ -6569,28 +6569,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D10" s="6">
         <v>3.8</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F10" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H10" s="6">
         <v>1.5</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J10" s="6">
         <v>0</v>
@@ -6603,34 +6603,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D11" s="6">
         <v>7.5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F11" s="6">
         <v>5.2</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H11" s="6">
         <v>3</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J11" s="6">
         <v>0.8</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -6656,40 +6656,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6697,34 +6697,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="6">
         <v>40</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2" s="6">
         <v>34</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2" s="6">
         <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J2" s="6">
         <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L2" s="6">
         <v>10</v>
@@ -6735,28 +6735,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D3" s="6">
         <v>7.5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F3" s="6">
         <v>5.2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H3" s="6">
         <v>3</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
@@ -6769,28 +6769,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D4" s="6">
         <v>7.5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F4" s="6">
         <v>5.2</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H4" s="6">
         <v>3</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J4" s="6">
         <v>0</v>
@@ -6803,34 +6803,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D5" s="6">
         <v>11.2</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F5" s="6">
         <v>9</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H5" s="6">
         <v>6.8</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J5" s="6">
         <v>3.8</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -6841,28 +6841,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D6" s="6">
         <v>7.5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F6" s="6">
         <v>5.2</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H6" s="6">
         <v>3</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J6" s="6">
         <v>0</v>
@@ -6875,28 +6875,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D7" s="6">
         <v>7.5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F7" s="6">
         <v>5.2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H7" s="6">
         <v>3</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
@@ -6909,22 +6909,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D8" s="6">
         <v>3.8</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F8" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
@@ -6939,28 +6939,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D9" s="6">
         <v>3.8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F9" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H9" s="6">
         <v>1.5</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J9" s="6">
         <v>0</v>
@@ -6973,28 +6973,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D10" s="6">
         <v>3.8</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F10" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H10" s="6">
         <v>1.5</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J10" s="6">
         <v>0</v>
@@ -7007,34 +7007,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D11" s="6">
         <v>7.5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F11" s="6">
         <v>5.2</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H11" s="6">
         <v>3</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J11" s="6">
         <v>0.8</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
